--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B0023\Desktop\Work\accelerator-programming\docs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B0023\Desktop\Work\accelerator-programming\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>512x512</t>
   </si>
@@ -53,9 +50,6 @@
     <t>Cpu</t>
   </si>
   <si>
-    <t>Optimised</t>
-  </si>
-  <si>
     <t>Non Optimised</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>CPU Function Timings</t>
+  </si>
+  <si>
+    <t>Optimised - Fmad off</t>
+  </si>
+  <si>
+    <t>Optimised - Fmad on</t>
   </si>
 </sst>
 </file>
@@ -133,68 +133,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>512x512</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>1024x1024</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>2048x2048</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>4096x4096</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Optimised</v>
-          </cell>
-          <cell r="B2">
-            <v>1.4978899999999999</v>
-          </cell>
-          <cell r="C2">
-            <v>3.6336599999999999</v>
-          </cell>
-          <cell r="D2">
-            <v>11.543699999999999</v>
-          </cell>
-          <cell r="E2">
-            <v>39.549900000000001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Non Optimised</v>
-          </cell>
-          <cell r="B3">
-            <v>1.71963</v>
-          </cell>
-          <cell r="C3">
-            <v>4.6368600000000004</v>
-          </cell>
-          <cell r="D3">
-            <v>14.959199999999999</v>
-          </cell>
-          <cell r="E3">
-            <v>51.723799999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="A11:F15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
@@ -513,7 +451,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -605,7 +543,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -625,7 +563,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1.4978899999999999</v>
@@ -645,30 +583,40 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.71963</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.6368600000000004</v>
-      </c>
-      <c r="D8" s="1">
-        <v>14.959199999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>51.723799999999997</v>
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1.65282</v>
+      </c>
+      <c r="C8">
+        <v>4.1592900000000004</v>
+      </c>
+      <c r="D8">
+        <v>12.974500000000001</v>
+      </c>
+      <c r="E8">
+        <v>44.6387</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.86226</v>
+      </c>
+      <c r="C9">
+        <v>5.1989400000000003</v>
+      </c>
+      <c r="D9">
+        <v>16.970400000000001</v>
+      </c>
+      <c r="E9">
+        <v>58.779499999999999</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -684,111 +632,121 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.2</v>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>39.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>135.5</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="1">
-        <v>471.3</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>56.7</v>
+        <v>12.9</v>
       </c>
       <c r="D14" s="1">
-        <v>226.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>891</v>
+        <v>135.5</v>
       </c>
       <c r="F14" s="1">
-        <v>3496.7</v>
+        <v>471.3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <f>B14+B13+B12</f>
+      <c r="C15" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>226.4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>891</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3496.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B15+B14+B13</f>
         <v>21</v>
       </c>
-      <c r="C15" s="1">
-        <f>C14+C13+C12</f>
+      <c r="C16" s="1">
+        <f>C15+C14+C13</f>
         <v>69.600000000000009</v>
       </c>
-      <c r="D15" s="1">
-        <f>D14+D13+D12</f>
+      <c r="D16" s="1">
+        <f>D15+D14+D13</f>
         <v>265.60000000000002</v>
       </c>
-      <c r="E15" s="1">
-        <f>E14+E13+E12</f>
+      <c r="E16" s="1">
+        <f>E15+E14+E13</f>
         <v>1026.5999999999999</v>
       </c>
-      <c r="F15" s="1">
-        <f>F14+F13+F12</f>
+      <c r="F16" s="1">
+        <f>F15+F14+F13</f>
         <v>3968.2</v>
       </c>
     </row>
